--- a/question2/test_file/留言详情分词展示.xlsx
+++ b/question2/test_file/留言详情分词展示.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,6 +374,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>未自定义词典分词</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>分词结果</t>
         </is>
       </c>
@@ -388,9 +393,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>座落在 A市 A3区 联丰路 米兰 春天 G2 栋 320 一家 名叫 一米阳光 婚纱 艺术摄影 影楼 年 工作室 营业额 上百万 地处 居民楼 内部 长 时间 请 税务局 工商局 查 一米阳光 有没有 纳税 操作</t>
-        </is>
-      </c>
+          <t>A3 区 一米阳光 婚纱 艺术摄影 合法 纳税</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -402,9 +408,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A市 A6区 道路 命名 规划 初步 成果 公示 文件 转化 正式 成果 希望 加快 路名 规范 道路 安装 路 名牌 变更 路 名牌 更换 A6区 农村 门牌号 10 年 未曾 更换 统一 更换 找 地方 只能 说 路口 充分发挥 路名 地名 作用 A6区 行政区划 调整 完毕 门牌 更新 同步</t>
-        </is>
-      </c>
+          <t>咨询 A6 区 道路 命名 规划 初步 成果 公示 城乡 门牌</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -416,9 +423,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>星沙一区 86 栋 东边 住户 违规 楼顶 加层 层 投诉 相关 管理 部门 却说 漏雨 搞 防水 改造 平改坡 真 不知 管理者 屁股 想 随便 答复 忽悠 群众 麻烦 专业知识 旁边 几户 改成 层 请 政府部门 介入 拆除 违建</t>
-        </is>
-      </c>
+          <t>请 拆除 A7 县星 沙一区 86 栋 东边 住户 楼顶 违建</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -430,9 +438,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A市 A1区 解放西路 星光 大厦 地方 美食 广场 面积 超过 6000 平米 无证无照 非法经营 已有 证件 商户 顾客 人身安全 很大 人身 安全隐患 电话 投诉 相关 部门 执法 部门 上门 责令 停业 相关 单位 部门 地方 美食 广场 保护伞 不顾 老百姓 人身安全 不管不顾 请 上级领导 关注</t>
-        </is>
-      </c>
+          <t>质疑 A1 区 地方 美食 广场 无证无照 经营</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -444,9 +453,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>深业睿城 f 区 地下 车位 有人 防 车位 非 人防 车位 车位 开发商 对外 销售 销售 人防 车位 违法 请 政府 查处 非 人防 车位 建设 成本 开发商 承担 纳入 业主 购房款 里 开发商 承担 建设 成本 请 拿出 相关 证据 业主 买 买 租 租 找 开发商 无理取闹 建设 成本 纳入 业主 房款 相关 法律法规 投资 受益 原则 f 区 地下 车位 开发商 建设 但其 建设 成本 业主 承担 房屋 买卖 过程 中 权属 关系 开发商 转移 业主 开发商 违法 二次 买卖 业主 答应</t>
-        </is>
-      </c>
+          <t>A7 县 深业 睿城 开发商 违法 出售 人防 车位 请 政府 查处</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -458,9 +468,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A6区 河东 主干道 路灯 坏 通组 路灯 简单 举 例子 书堂 大道 河东 南北向 三条 主干道 全线 不到 五分之一 路灯 入秋 天黑 早 书堂 大道 路灯 开 远光灯 渣土 车 货车 条路 宽度 有限 晚上 条 路上 电动车 行人 发生 安全事故 鲜明对比 东城 全丰 村 没人走 路 全线 路灯 说白了 公共资源 浪费 农村 地区 道路 两侧 树木 长 路上 砍 青 年初 校车 司机 说 停止 校车 走 路 农村 道路 修得 管理 成 摆设 建议 农村 条 道路 两侧 0.5 米 砍 青 樟树 落叶 晚上 行车 区分 道路 宽度 条 道路 路上 公示 维护 责任 条件 道路 白改黑 铜官 渡口 电厂 大道 梅桐 公路 丁字 镇 驼峰 桥 路段 画 标线</t>
-        </is>
-      </c>
+          <t>A6 区 河东 交通</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -472,9 +483,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>星沙 拓改白 改黑 路 搞 几次 三一路 唯独 忘记 金贸路 这条 老街 路面 破碎 不堪 菜市场 地段 公园 南门 涵洞 进出口 堵得 水泄不通 请问 研究 解决 下金 贸路 拥堵 架桥 中南 金贸路 拓宽 白改黑</t>
-        </is>
-      </c>
+          <t>A7 县金 贸路 拓宽 白改黑</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -486,9 +498,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>经开区 东六路 98 号 东方 一品 小区 栋 楼 违规 砌墙 铁艺圈 小区 公共 绿化 用地 损坏 小区 整体 形象 美观 度 及时处理 连锁 效应 一楼 业主 纷纷 效仿 邻里纠纷 物权法 明确规定 小区 绿地 业主 一楼 业主 擅自 圈围 庭院 影响 业主 权益 请 相关 部门 强制 拆除 违规 建设</t>
-        </is>
-      </c>
+          <t>A7 县 东方 一品 小区业主 违法 圈占 公共 绿化 请 查处</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -500,9 +513,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>星沙文化公园 里 违建 别墅 17 年 前段时间 拆除 大部分 栋 别墅 拆除 一栋 装修 合法 建筑 栋 拆除 定性 违建 拆除 绿 民 等待 时机 想 合法 建筑 违建 公园里 影响 不好 建议 父母官 留点 青山绿水 子孙后代 造福 拆除 公园里 违建</t>
-        </is>
-      </c>
+          <t>建议 拆除 A7 县星 沙 文化公园 里 违建</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -514,9 +528,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>深业睿城 小区 f 区 地下室 人防 工程 开发商 权属 开发商 不顾 业主 反对 强行 万元 价格 买卖 f 区 地下 车位 威胁 业主 请问 相关 职能部门 深业睿城 小区 f 区 地下 车位 计入 公摊面积 建造 成本 摊入 住宅 商品房 打黑 除恶 任由 开发商 恣意妄为 随意 威胁 业主 生命财产</t>
-        </is>
-      </c>
+          <t>A7 县 深业 睿城 小区 f 区 地下 车位 计入 公摊面积</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
